--- a/Assets/Data/Table/Convert/Stat_LevelUp.xlsx
+++ b/Assets/Data/Table/Convert/Stat_LevelUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1FC6DB-D2CA-44AB-8B92-1FCB05B319D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDC036-349B-4A4E-BD07-71758845C191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelUp" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,63 +66,236 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BlinkSkillLevel_Original
+    <t>Acquire_Item_BlinkSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire_Item_BlinkSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blink1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blink2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealItem_Original</t>
+  </si>
+  <si>
+    <t>LevelUpStat_ID_List</t>
+  </si>
+  <si>
+    <t>BlinkSkillLevel
+BlinkDistance_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHealItem_Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_HealItem_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxHp_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxMp_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxTp_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_MaxEquipSlot_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_1</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_2</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_3</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_4</t>
+  </si>
+  <si>
+    <t>Acquire_AtkDamage_LevelUpItem_5</t>
+  </si>
+  <si>
+    <t>MaxHp_Original</t>
+  </si>
+  <si>
+    <t>MaxMp_Original</t>
+  </si>
+  <si>
+    <t>MaxTp_Original</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot_Original</t>
+  </si>
+  <si>
+    <t>AtkDamage_Original</t>
+  </si>
+  <si>
+    <t>MaxHealItem1</t>
+  </si>
+  <si>
+    <t>MaxHealItem2</t>
+  </si>
+  <si>
+    <t>MaxHealItem3</t>
+  </si>
+  <si>
+    <t>MaxHealItem4</t>
+  </si>
+  <si>
+    <t>MaxHealItem5</t>
+  </si>
+  <si>
+    <t>MaxHp1</t>
+  </si>
+  <si>
+    <t>MaxHp2</t>
+  </si>
+  <si>
+    <t>MaxHp3</t>
+  </si>
+  <si>
+    <t>MaxHp4</t>
+  </si>
+  <si>
+    <t>MaxHp5</t>
+  </si>
+  <si>
+    <t>MaxMp1</t>
+  </si>
+  <si>
+    <t>MaxMp2</t>
+  </si>
+  <si>
+    <t>MaxMp3</t>
+  </si>
+  <si>
+    <t>MaxMp4</t>
+  </si>
+  <si>
+    <t>MaxMp5</t>
+  </si>
+  <si>
+    <t>MaxTp1</t>
+  </si>
+  <si>
+    <t>MaxTp2</t>
+  </si>
+  <si>
+    <t>MaxTp3</t>
+  </si>
+  <si>
+    <t>MaxTp4</t>
+  </si>
+  <si>
+    <t>MaxTp5</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot1</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot2</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot3</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot4</t>
+  </si>
+  <si>
+    <t>MaxEquipSlot5</t>
+  </si>
+  <si>
+    <t>AtkDamage1</t>
+  </si>
+  <si>
+    <t>AtkDamage2</t>
+  </si>
+  <si>
+    <t>AtkDamage3</t>
+  </si>
+  <si>
+    <t>AtkDamage4</t>
+  </si>
+  <si>
+    <t>AtkDamage5</t>
+  </si>
+  <si>
+    <t>BlinkSkillLevel
 BlinkDistance_Original
 BlinkAtkPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlinkSkillLevel_Original
-BlinkDistance_Original</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquire_Item_BlinkSkill_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquire_Item_BlinkSkill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blink1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blink2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxHealItem_Original</t>
-  </si>
-  <si>
-    <t>MaxHealItem_3</t>
-  </si>
-  <si>
-    <t>MaxHealItem_4</t>
-  </si>
-  <si>
-    <t>MaxHealItem_5</t>
-  </si>
-  <si>
-    <t>Acquire_Item_HealItem_3</t>
-  </si>
-  <si>
-    <t>Acquire_Item_HealItem_4</t>
-  </si>
-  <si>
-    <t>Acquire_Item_HealItem_5</t>
-  </si>
-  <si>
-    <t>MaxHealItem_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acquire_Item_HealItem_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelUpStat_ID_List</t>
   </si>
 </sst>
 </file>
@@ -169,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +358,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,6 +499,66 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,6 +568,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFB48500"/>
       <color rgb="FFD2A000"/>
     </mruColors>
@@ -578,22 +849,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.69921875" style="12" customWidth="1"/>
     <col min="4" max="4" width="9" style="7"/>
     <col min="5" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="82.2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -601,13 +872,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -621,92 +892,453 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7">
+    <row r="12" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7">
+    <row r="13" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7">
+    <row r="14" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="11"/>
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="33">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
